--- a/Backend/Excel/Final_Fall_Enrollment_By_Race.xlsx
+++ b/Backend/Excel/Final_Fall_Enrollment_By_Race.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDF1518-98D3-CF4D-97DC-AA3AEB069610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D07175-9AB1-5E40-97D8-5D05EA66E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{E520A954-3E9F-4645-9A91-7DB6214CBB8A}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Black or African American</t>
   </si>
   <si>
-    <t>Hispanic/Latino</t>
-  </si>
-  <si>
     <t>Native Hawaiian or Pacific Islander</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Nonresident alien</t>
+  </si>
+  <si>
+    <t>Hispanic Latino</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,22 +468,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
